--- a/tasks_2018-12.xlsx
+++ b/tasks_2018-12.xlsx
@@ -79,9 +79,6 @@
     <t>Feebas</t>
   </si>
   <si>
-    <t>Scambia un Pokemon</t>
-  </si>
-  <si>
     <t>Misdreavus</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>Vinci un raid</t>
+  </si>
+  <si>
+    <t>Effettua uno scambio Pokemon</t>
   </si>
 </sst>
 </file>
@@ -501,9 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -513,10 +511,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -535,10 +533,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -568,10 +566,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
         <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -593,7 +591,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -601,10 +599,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -612,10 +610,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -623,10 +621,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -656,10 +654,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
         <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -689,10 +687,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -700,10 +698,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -722,10 +720,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -744,10 +742,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
         <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -755,10 +753,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
         <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -766,10 +764,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -777,10 +775,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
         <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
       </c>
       <c r="C25">
         <v>0</v>
